--- a/biology/Zoologie/Dorosoma/Dorosoma.xlsx
+++ b/biology/Zoologie/Dorosoma/Dorosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorosoma est un genre de poissons de pêche, de la famille des clupéidés (Clupeidae). 
 Les cinq espèces de ce genre sont indigènes des Amériques, et sont connues à la fois en eau douce et dans les eaux des estuaires et des baies.
@@ -512,10 +524,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dorosoma anale Doux, 1904 (alose de rivière mexicaine)
-Dorosoma cepedianum (Lesueur, 1818) (alose américaine ou alose à gésier[1])
+Dorosoma cepedianum (Lesueur, 1818) (alose américaine ou alose à gésier)
 Dorosoma chavesi Doux, 1907 (alose du Nicaragua)
 Dorosoma petenense (Günther, 1867)
 Dorosoma smithi C. L. Hubbs &amp; R. R. Miller, 1941 (alose du Pacifique)</t>
